--- a/data/trans_orig/P14B35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C6E52D-77FA-412B-A39C-F5C376871B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB08A9DD-21E4-4287-851C-1B3DC84A4D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{26F9BCE1-409B-4BCE-A01C-B614C2599EEC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E4E9E5F-5C21-4FF1-AF99-ED8E78A72F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="114">
   <si>
     <t>Población cuyo dolor menstrual le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -79,10 +79,10 @@
     <t>19,82%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,10 +91,10 @@
     <t>80,18%</t>
   </si>
   <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>40,06%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>37,73%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>62,27%</t>
   </si>
   <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -148,19 +148,19 @@
     <t>32,84%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>67,16%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -172,19 +172,19 @@
     <t>32,04%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -196,55 +196,55 @@
     <t>27,1%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
   </si>
   <si>
     <t>72,9%</t>
   </si>
   <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>71,13%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -253,13 +253,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>51,0%</t>
+    <t>55,6%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>49,0%</t>
+    <t>44,4%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -268,19 +268,19 @@
     <t>26,2%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>Población cuyo dolor menstrual le limita en 2023 (Tasa respuesta: 2,91%)</t>
@@ -289,73 +289,67 @@
     <t>74,55%</t>
   </si>
   <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
   </si>
   <si>
     <t>46,46%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
+    <t>63,35%</t>
   </si>
   <si>
     <t>53,54%</t>
   </si>
   <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
+    <t>36,65%</t>
   </si>
   <si>
     <t>44,06%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
   </si>
   <si>
     <t>55,94%</t>
   </si>
   <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>82,0%</t>
@@ -373,19 +367,19 @@
     <t>49,26%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>50,74%</t>
   </si>
   <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
 </sst>
 </file>
@@ -797,7 +791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF920669-2B42-4E1D-BFF5-B89E032D12C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34F2939-BFD2-4006-B282-7ED139EC3F1B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1950,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D112810A-4BE1-4797-8126-AE6EC8719F35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E65739-BD4C-48F7-87BF-02989FC1A982}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3103,7 +3097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8F948A-AEC1-4FAB-B730-F614D331B7FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1DEF1F-9ED9-420C-BF9E-93118817776F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3392,10 +3386,10 @@
         <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -3407,10 +3401,10 @@
         <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3432,13 @@
         <v>42913</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -3453,13 +3447,13 @@
         <v>42913</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3532,13 @@
         <v>30025</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -3553,13 +3547,13 @@
         <v>30025</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3581,13 @@
         <v>38127</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -3602,13 +3596,13 @@
         <v>38127</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3681,13 @@
         <v>18372</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -3702,13 +3696,13 @@
         <v>18372</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3730,13 @@
         <v>25816</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -3751,13 +3745,13 @@
         <v>25816</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,10 +3830,10 @@
         <v>1967</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>74</v>
@@ -3851,10 +3845,10 @@
         <v>1967</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>74</v>
@@ -3885,13 +3879,13 @@
         <v>432</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3900,13 +3894,13 @@
         <v>432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4116,13 @@
         <v>112382</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -4137,13 +4131,13 @@
         <v>112382</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4165,13 @@
         <v>115753</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>132</v>
@@ -4186,13 +4180,13 @@
         <v>115753</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB08A9DD-21E4-4287-851C-1B3DC84A4D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDCE0386-3F11-4421-8CFB-642FECC4BECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E4E9E5F-5C21-4FF1-AF99-ED8E78A72F0C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D747F0F-D6DC-4E7A-BE25-C1B9692586B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,10 +79,10 @@
     <t>19,82%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,10 +91,10 @@
     <t>80,18%</t>
   </si>
   <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>40,06%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>37,73%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
   </si>
   <si>
     <t>62,27%</t>
   </si>
   <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -148,19 +148,19 @@
     <t>32,84%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
   </si>
   <si>
     <t>67,16%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -172,79 +172,79 @@
     <t>32,04%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo dolor menstrual le limita en 2015 (Tasa respuesta: 1,02%)</t>
+    <t>Población cuyo dolor menstrual le limita en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
   </si>
   <si>
     <t>72,9%</t>
   </si>
   <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
   </si>
   <si>
     <t>71,13%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -253,13 +253,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>55,6%</t>
+    <t>60,06%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>44,4%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -268,19 +268,19 @@
     <t>26,2%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>Población cuyo dolor menstrual le limita en 2023 (Tasa respuesta: 2,91%)</t>
@@ -791,7 +791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34F2939-BFD2-4006-B282-7ED139EC3F1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A89DAC-7A83-4594-9CCB-1AFD6587285A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1944,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E65739-BD4C-48F7-87BF-02989FC1A982}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C3D8BC-C052-4953-AEFB-F2ED4F636B82}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3097,7 +3097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1DEF1F-9ED9-420C-BF9E-93118817776F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B6433D-D0B1-46BB-8E20-A3FBBEEE3042}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
